--- a/datastatic/datasets/online/D_Eurostat_Recycling_rate_of_municipal_waste_2013.xlsx
+++ b/datastatic/datasets/online/D_Eurostat_Recycling_rate_of_municipal_waste_2013.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D_Eurostat_Recycling_rate_of_municipal_waste_2013.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D_Eurostat_Recycling_rate_of_mu" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/datastatic/datasets/online/D_Eurostat_Recycling_rate_of_municipal_waste_2013.xlsx
+++ b/datastatic/datasets/online/D_Eurostat_Recycling_rate_of_municipal_waste_2013.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
   <si>
     <t>original_title</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Ireland</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <t>Greece</t>
@@ -300,7 +303,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -327,6 +330,10 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -369,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -407,6 +414,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -803,29 +813,39 @@
       <c r="A44" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="11"/>
+      <c r="B44" s="13">
+        <v>36.6</v>
+      </c>
       <c r="C44" s="12">
         <v>36.6</v>
       </c>
       <c r="D44" s="12">
         <v>36.6</v>
       </c>
+      <c r="E44" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="B45" s="13">
+        <v>19.3</v>
+      </c>
       <c r="C45" s="12">
         <v>19.3</v>
       </c>
       <c r="D45" s="12">
         <v>19.3</v>
       </c>
+      <c r="E45" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" s="12">
         <v>32.6</v>
@@ -839,7 +859,7 @@
     </row>
     <row r="47">
       <c r="A47" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47" s="12">
         <v>39.2</v>
@@ -853,7 +873,7 @@
     </row>
     <row r="48">
       <c r="A48" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B48" s="12">
         <v>16.5</v>
@@ -867,7 +887,7 @@
     </row>
     <row r="49">
       <c r="A49" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" s="12">
         <v>42.5</v>
@@ -881,7 +901,7 @@
     </row>
     <row r="50">
       <c r="A50" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" s="12">
         <v>17.7</v>
@@ -895,7 +915,7 @@
     </row>
     <row r="51">
       <c r="A51" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B51" s="12">
         <v>20.5</v>
@@ -909,7 +929,7 @@
     </row>
     <row r="52">
       <c r="A52" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52" s="12">
         <v>30.5</v>
@@ -923,7 +943,7 @@
     </row>
     <row r="53">
       <c r="A53" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B53" s="12">
         <v>46.6</v>
@@ -937,7 +957,7 @@
     </row>
     <row r="54">
       <c r="A54" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B54" s="12">
         <v>30.5</v>
@@ -951,7 +971,7 @@
     </row>
     <row r="55">
       <c r="A55" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" s="12">
         <v>10.9</v>
@@ -965,7 +985,7 @@
     </row>
     <row r="56">
       <c r="A56" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B56" s="12">
         <v>50.9</v>
@@ -979,7 +999,7 @@
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" s="12">
         <v>56.3</v>
@@ -993,7 +1013,7 @@
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B58" s="12">
         <v>32.3</v>
@@ -1007,7 +1027,7 @@
     </row>
     <row r="59">
       <c r="A59" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B59" s="12">
         <v>30.4</v>
@@ -1021,7 +1041,7 @@
     </row>
     <row r="60">
       <c r="A60" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" s="12">
         <v>13.0</v>
@@ -1035,7 +1055,7 @@
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" s="12">
         <v>36.0</v>
@@ -1049,7 +1069,7 @@
     </row>
     <row r="62">
       <c r="A62" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B62" s="12">
         <v>10.3</v>
@@ -1063,7 +1083,7 @@
     </row>
     <row r="63">
       <c r="A63" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B63" s="12">
         <v>32.5</v>
@@ -1077,7 +1097,7 @@
     </row>
     <row r="64">
       <c r="A64" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" s="12">
         <v>49.9</v>
@@ -1091,7 +1111,7 @@
     </row>
     <row r="65">
       <c r="A65" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" s="12">
         <v>43.7</v>
@@ -1105,19 +1125,24 @@
     </row>
     <row r="66">
       <c r="A66" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" s="11"/>
+        <v>86</v>
+      </c>
+      <c r="B66" s="13">
+        <v>44.6</v>
+      </c>
       <c r="C66" s="12">
         <v>44.6</v>
       </c>
       <c r="D66" s="12">
         <v>42.6</v>
       </c>
+      <c r="E66" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" s="12">
         <v>42.2</v>
@@ -1131,7 +1156,7 @@
     </row>
     <row r="68">
       <c r="A68" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" s="12">
         <v>53.5</v>
@@ -1145,7 +1170,7 @@
     </row>
     <row r="69">
       <c r="A69" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" s="12">
         <v>7.9</v>
@@ -1159,7 +1184,7 @@
     </row>
     <row r="70">
       <c r="A70" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -1167,7 +1192,7 @@
     </row>
     <row r="71">
       <c r="A71" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B71" s="12">
         <v>0.7</v>
@@ -1181,7 +1206,7 @@
     </row>
     <row r="72">
       <c r="A72" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -1191,7 +1216,7 @@
     </row>
     <row r="73">
       <c r="A73" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" s="12">
         <v>0.0</v>

--- a/datastatic/datasets/online/D_Eurostat_Recycling_rate_of_municipal_waste_2013.xlsx
+++ b/datastatic/datasets/online/D_Eurostat_Recycling_rate_of_municipal_waste_2013.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D_Eurostat_Recycling_rate_of_municipal_waste_2013.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D_Eurostat_Recycling_rate_of_mu" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
   <si>
     <t>original_title</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Ireland</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <t>Greece</t>
@@ -300,7 +303,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -327,6 +330,10 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -369,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -407,6 +414,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -803,29 +813,39 @@
       <c r="A44" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="11"/>
+      <c r="B44" s="13">
+        <v>36.6</v>
+      </c>
       <c r="C44" s="12">
         <v>36.6</v>
       </c>
       <c r="D44" s="12">
         <v>36.6</v>
       </c>
+      <c r="E44" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="B45" s="13">
+        <v>19.3</v>
+      </c>
       <c r="C45" s="12">
         <v>19.3</v>
       </c>
       <c r="D45" s="12">
         <v>19.3</v>
       </c>
+      <c r="E45" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" s="12">
         <v>32.6</v>
@@ -839,7 +859,7 @@
     </row>
     <row r="47">
       <c r="A47" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47" s="12">
         <v>39.2</v>
@@ -853,7 +873,7 @@
     </row>
     <row r="48">
       <c r="A48" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B48" s="12">
         <v>16.5</v>
@@ -867,7 +887,7 @@
     </row>
     <row r="49">
       <c r="A49" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" s="12">
         <v>42.5</v>
@@ -881,7 +901,7 @@
     </row>
     <row r="50">
       <c r="A50" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" s="12">
         <v>17.7</v>
@@ -895,7 +915,7 @@
     </row>
     <row r="51">
       <c r="A51" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B51" s="12">
         <v>20.5</v>
@@ -909,7 +929,7 @@
     </row>
     <row r="52">
       <c r="A52" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52" s="12">
         <v>30.5</v>
@@ -923,7 +943,7 @@
     </row>
     <row r="53">
       <c r="A53" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B53" s="12">
         <v>46.6</v>
@@ -937,7 +957,7 @@
     </row>
     <row r="54">
       <c r="A54" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B54" s="12">
         <v>30.5</v>
@@ -951,7 +971,7 @@
     </row>
     <row r="55">
       <c r="A55" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" s="12">
         <v>10.9</v>
@@ -965,7 +985,7 @@
     </row>
     <row r="56">
       <c r="A56" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B56" s="12">
         <v>50.9</v>
@@ -979,7 +999,7 @@
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" s="12">
         <v>56.3</v>
@@ -993,7 +1013,7 @@
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B58" s="12">
         <v>32.3</v>
@@ -1007,7 +1027,7 @@
     </row>
     <row r="59">
       <c r="A59" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B59" s="12">
         <v>30.4</v>
@@ -1021,7 +1041,7 @@
     </row>
     <row r="60">
       <c r="A60" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" s="12">
         <v>13.0</v>
@@ -1035,7 +1055,7 @@
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" s="12">
         <v>36.0</v>
@@ -1049,7 +1069,7 @@
     </row>
     <row r="62">
       <c r="A62" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B62" s="12">
         <v>10.3</v>
@@ -1063,7 +1083,7 @@
     </row>
     <row r="63">
       <c r="A63" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B63" s="12">
         <v>32.5</v>
@@ -1077,7 +1097,7 @@
     </row>
     <row r="64">
       <c r="A64" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" s="12">
         <v>49.9</v>
@@ -1091,7 +1111,7 @@
     </row>
     <row r="65">
       <c r="A65" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" s="12">
         <v>43.7</v>
@@ -1105,19 +1125,24 @@
     </row>
     <row r="66">
       <c r="A66" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" s="11"/>
+        <v>86</v>
+      </c>
+      <c r="B66" s="13">
+        <v>44.6</v>
+      </c>
       <c r="C66" s="12">
         <v>44.6</v>
       </c>
       <c r="D66" s="12">
         <v>42.6</v>
       </c>
+      <c r="E66" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" s="12">
         <v>42.2</v>
@@ -1131,7 +1156,7 @@
     </row>
     <row r="68">
       <c r="A68" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" s="12">
         <v>53.5</v>
@@ -1145,7 +1170,7 @@
     </row>
     <row r="69">
       <c r="A69" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" s="12">
         <v>7.9</v>
@@ -1159,7 +1184,7 @@
     </row>
     <row r="70">
       <c r="A70" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -1167,7 +1192,7 @@
     </row>
     <row r="71">
       <c r="A71" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B71" s="12">
         <v>0.7</v>
@@ -1181,7 +1206,7 @@
     </row>
     <row r="72">
       <c r="A72" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -1191,7 +1216,7 @@
     </row>
     <row r="73">
       <c r="A73" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" s="12">
         <v>0.0</v>
